--- a/Yearly Report/Yearly-Report-2022-RO094782.xlsx
+++ b/Yearly Report/Yearly-Report-2022-RO094782.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -37,148 +37,289 @@
     <x:t>Currency</x:t>
   </x:si>
   <x:si>
-    <x:t>913522</x:t>
+    <x:t>853994</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158357</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31671.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>566723</x:t>
   </x:si>
   <x:si>
     <x:t>Professional Services</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-01-25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>259516</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51903.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>311419</x:t>
+    <x:t>2017-10-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200820</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30045.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119744</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1605</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>760320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52838</x:t>
+  </x:si>
+  <x:si>
+    <x:t>317028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>716406</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132885</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26577</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159462</x:t>
+  </x:si>
+  <x:si>
+    <x:t>418828</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concierge Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>181960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36392</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>701367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beverages and Catering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3429.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20577.6</x:t>
   </x:si>
   <x:si>
     <x:t>EUR</x:t>
   </x:si>
   <x:si>
-    <x:t>825892</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>216370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>259644</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>492627</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Various paper supplies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27773</x:t>
-  </x:si>
-  <x:si>
-    <x:t>166638</x:t>
-  </x:si>
-  <x:si>
-    <x:t>738805</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>233149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46629.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>279779</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>324728</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50650.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303905</x:t>
-  </x:si>
-  <x:si>
-    <x:t>316648</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Concierge Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6844.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41066.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>399482</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67638</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13527.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81165.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>826113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111834</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22366.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134201</x:t>
+    <x:t>186931</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>234870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46974</x:t>
+  </x:si>
+  <x:si>
+    <x:t>281844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>826380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26987</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5397.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32384.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>544352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34102.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204617</x:t>
+  </x:si>
+  <x:si>
+    <x:t>928751</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1415</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1698</x:t>
+  </x:si>
+  <x:si>
+    <x:t>431660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140577</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28115.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168692</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28857.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>173147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>661025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9693</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1938.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11631.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>235534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20233.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>784864</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143761</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28752.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172513</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -529,7 +670,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G9"/>
+  <x:dimension ref="A1:G18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -586,30 +727,30 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>22</x:v>
@@ -624,7 +765,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
@@ -632,7 +773,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>27</x:v>
@@ -693,7 +834,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
@@ -724,22 +865,229 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>19</x:v>
+      <x:c r="C15" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="A16" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="A17" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
